--- a/فولاژ/فولاژ.xlsx
+++ b/فولاژ/فولاژ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -1054,79 +1054,112 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,19 +1174,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,160 +1192,190 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,16 +1384,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,42 +1408,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,40 +1420,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1438,6 +1462,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,34 +1477,7 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,26 +1502,24 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="پرتفوی"/>
+      <sheetName val="سرمایه"/>
+      <sheetName val="بازدهی ماهانه"/>
+      <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
-      <sheetName val="محاسبه مدیریت سرمایه"/>
-      <sheetName val="پرتفوی"/>
-      <sheetName val="تحلیل"/>
-      <sheetName val="تاریخچه خرید"/>
-      <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
         <row r="5">
           <cell r="B5">
-            <v>1466894651</v>
+            <v>179695690.64468727</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1816,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
@@ -1838,38 +1836,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="43" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1910,104 +1908,114 @@
       <c r="M3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="38"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40">
+      <c r="B4" s="32">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
         <v>-6.9987631416202873</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <f>(D4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="32">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
         <v>2.2158317872603588</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <f>(G4/Q4)-1</f>
         <v>0.31660334010780233</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>14900</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="32">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
         <v>1.0902906617192336</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <f>(J4/Q4)-1</f>
         <v>0.155783334806044</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="34">
         <v>13080</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="39">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
         <v>10554159</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="40">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
         <v>0.142882389325793</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="35">
         <v>9700</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="49">
         <f>R4*Q4</f>
         <v>73866059</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="33">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>7.1948990970858752E-3</v>
-      </c>
-      <c r="P4" s="33">
+        <v>5.8733511984262132E-2</v>
+      </c>
+      <c r="P4" s="50">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>179695690.64468727</v>
+      </c>
+      <c r="Q4" s="50">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
         <v>11317</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="45">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
         <v>6527</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B4:B5"/>
@@ -2024,16 +2032,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2044,9 +2042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,43 +2065,43 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="115"/>
+      <c r="G2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="113"/>
+      <c r="I2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="55" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="51" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="108" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2114,7 +2112,7 @@
       <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2160,383 +2158,383 @@
       <c r="S3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="63"/>
+      <c r="T3" s="116"/>
     </row>
     <row r="4" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="119">
         <v>13080</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="74" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="87" t="s">
+      <c r="T4" s="80" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="88"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="70"/>
+      <c r="H6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="101">
+      <c r="K6" s="104">
         <v>13080</v>
       </c>
-      <c r="L6" s="102">
+      <c r="L6" s="107">
         <v>9999</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="62"/>
+      <c r="N6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="111" t="s">
+      <c r="P6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="113" t="s">
+      <c r="Q6" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="103" t="s">
+      <c r="S6" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="94" t="s">
+      <c r="T6" s="84" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="95"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="85"/>
     </row>
     <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="87"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="80"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="88"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="90"/>
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="94"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="84"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="95"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="87"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="80"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="88"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="90"/>
     </row>
     <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="94"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="84"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="95"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="85"/>
     </row>
     <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="87"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="80"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="110"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="81"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
@@ -2568,6 +2566,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="N12:N13"/>
@@ -2592,131 +2709,12 @@
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="R6:R7" r:id="rId1" display="tech_990112.png"/>
+    <hyperlink ref="S4:S5" r:id="rId1" display="tot_990107.png"/>
     <hyperlink ref="R4:R5" r:id="rId2" display="sig_990107.png"/>
-    <hyperlink ref="S4:S5" r:id="rId3" display="tot_990107.png"/>
-    <hyperlink ref="S6:S7" r:id="rId4" display="tot_990112.png"/>
+    <hyperlink ref="S6:S7" r:id="rId3" display="tot_990112.png"/>
+    <hyperlink ref="R6:R7" r:id="rId4" display="tech_990112.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
@@ -2748,41 +2746,41 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="61" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="36" t="s">
+      <c r="L2" s="115"/>
+      <c r="M2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="155" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="120" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2820,360 +2818,360 @@
       <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="34"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="155"/>
+      <c r="T3" s="120"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40">
+      <c r="B4" s="32">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>-6.9987631416202873</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="32">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>2.2158317872603588</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <f>(G4/P4)-1</f>
         <v>0.31660334010780233</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>14900</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="32">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>1.0902906617192336</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <f>(J4/P4)-1</f>
         <v>0.155783334806044</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="34">
         <v>13080</v>
       </c>
-      <c r="K4" s="144">
+      <c r="K4" s="127">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0.142882389325793</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="35">
         <v>9700</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="49">
         <f>P4*Q4</f>
         <v>73866059</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="33">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>7.1948990970858752E-3</v>
-      </c>
-      <c r="O4" s="33">
+        <v>5.8733511984262132E-2</v>
+      </c>
+      <c r="O4" s="50">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
-      </c>
-      <c r="P4" s="153">
+        <v>179695690.64468727</v>
+      </c>
+      <c r="P4" s="121">
         <v>11317</v>
       </c>
-      <c r="Q4" s="145">
+      <c r="Q4" s="122">
         <v>6527</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="148" t="s">
+      <c r="S4" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="48"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="154"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="30"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="48"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="154"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="30"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="48"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="130"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="124"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="130"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="124"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="130"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="124"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="130"/>
-      <c r="L8" s="124"/>
+      <c r="L8" s="134"/>
       <c r="M8" s="130"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="120"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="138"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="131"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="125"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="131"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="125"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="131"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="125"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="135"/>
       <c r="K9" s="131"/>
-      <c r="L9" s="125"/>
+      <c r="L9" s="135"/>
       <c r="M9" s="131"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="121"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="139"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="132"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="148"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="133"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="149"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="130"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="124"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="130"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="124"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="134"/>
       <c r="H12" s="130"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="124"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="134"/>
       <c r="K12" s="130"/>
-      <c r="L12" s="124"/>
+      <c r="L12" s="134"/>
       <c r="M12" s="130"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="120"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="138"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="131"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="125"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="131"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="125"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="135"/>
       <c r="H13" s="131"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="125"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="131"/>
-      <c r="L13" s="125"/>
+      <c r="L13" s="135"/>
       <c r="M13" s="131"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="121"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="139"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="132"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="148"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="133"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="141"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="149"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="130"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="124"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="130"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="124"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="130"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="124"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="134"/>
       <c r="K16" s="130"/>
-      <c r="L16" s="124"/>
+      <c r="L16" s="134"/>
       <c r="M16" s="130"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="120"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="138"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="131"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="125"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="131"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="125"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="135"/>
       <c r="H17" s="131"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="125"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="135"/>
       <c r="K17" s="131"/>
-      <c r="L17" s="125"/>
+      <c r="L17" s="135"/>
       <c r="M17" s="131"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="121"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="139"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="S20" s="26"/>
@@ -3185,6 +3183,124 @@
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
@@ -3209,124 +3325,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990106.png"/>
@@ -3359,152 +3357,180 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="165" t="s">
+      <c r="F2" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="155" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="120" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="155"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="160">
+      <c r="B4" s="169">
         <f>D4-(F4*G4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="161">
+      <c r="C4" s="170">
         <f>E4/F4-1</f>
         <v>7.8531308508425157E-2</v>
       </c>
-      <c r="D4" s="160">
+      <c r="D4" s="169">
         <f>E4*G4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="166">
         <v>10369</v>
       </c>
-      <c r="F4" s="167">
+      <c r="F4" s="159">
         <v>9614</v>
       </c>
-      <c r="G4" s="163">
+      <c r="G4" s="156">
         <v>0</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="163"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="156"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="163"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="162"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="163"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="156"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="162"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="163"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="156"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="156"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="163"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="163"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="163"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -3521,34 +3547,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/فولاژ/فولاژ.xlsx
+++ b/فولاژ/فولاژ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>تاریخ</t>
   </si>
@@ -225,6 +225,48 @@
   </si>
   <si>
     <t>Bullish</t>
+  </si>
+  <si>
+    <t>99/01/25</t>
+  </si>
+  <si>
+    <t>tech_990125.png</t>
+  </si>
+  <si>
+    <t>tot_990125.png</t>
+  </si>
+  <si>
+    <t>روند صعودی</t>
+  </si>
+  <si>
+    <t>شکست میدلاین و در حال پولبک</t>
+  </si>
+  <si>
+    <t>پولبک</t>
+  </si>
+  <si>
+    <t>OB-Bullish R</t>
+  </si>
+  <si>
+    <t>پولبک به خط روند و برخورد به خط 70</t>
+  </si>
+  <si>
+    <t>rsi دارد RD- نشان میدهد ولی هنوز سر MACD کج نشده است.</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>99/01/26</t>
+  </si>
+  <si>
+    <t>پولبک قیمت به سقف قبلی</t>
+  </si>
+  <si>
+    <t>پولبک قیمت به سقف قبلی، پولبک rsi به خط روند شکسته شده</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,6 +1222,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,11 +1318,23 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1339,12 +1399,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,6 +1408,30 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,34 +1450,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,28 +1468,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,23 +1551,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="پرتفوی"/>
+      <sheetName val="واچ لیست"/>
       <sheetName val="سرمایه"/>
       <sheetName val="بازدهی ماهانه"/>
       <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="5">
-          <cell r="B5">
-            <v>179695690.64468727</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="F4">
+            <v>644715411</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1822,8 +1872,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1918,7 +1968,7 @@
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
-        <v>-6.9987631416202873</v>
+        <v>-5.5007164798174815</v>
       </c>
       <c r="C4" s="33">
         <f>(D4/Q4)-1</f>
@@ -1929,56 +1979,56 @@
       </c>
       <c r="E4" s="32">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
-        <v>2.2158317872603588</v>
+        <v>89.61751840292311</v>
       </c>
       <c r="F4" s="33">
         <f>(G4/Q4)-1</f>
-        <v>0.31660334010780233</v>
+        <v>16.291971915247064</v>
       </c>
       <c r="G4" s="34">
-        <v>14900</v>
+        <v>205000</v>
       </c>
       <c r="H4" s="32">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
-        <v>1.0902906617192336</v>
+        <v>18.162844393449689</v>
       </c>
       <c r="I4" s="33">
         <f>(J4/Q4)-1</f>
-        <v>0.155783334806044</v>
+        <v>3.3019052081834159</v>
       </c>
       <c r="J4" s="34">
-        <v>13080</v>
+        <v>51000</v>
       </c>
       <c r="K4" s="39">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
-        <v>10554159</v>
+        <v>18933541</v>
       </c>
       <c r="L4" s="40">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
-        <v>0.142882389325793</v>
+        <v>0.18179449962001692</v>
       </c>
       <c r="M4" s="35">
         <v>9700</v>
       </c>
       <c r="N4" s="49">
         <f>R4*Q4</f>
-        <v>73866059</v>
+        <v>104148041</v>
       </c>
       <c r="O4" s="33">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>5.8733511984262132E-2</v>
+        <v>2.9367284660735384E-2</v>
       </c>
       <c r="P4" s="50">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>179695690.64468727</v>
+        <f>[1]سرمایه!$F$4</f>
+        <v>644715411</v>
       </c>
       <c r="Q4" s="50">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
-        <v>11317</v>
+        <v>11855.212407512807</v>
       </c>
       <c r="R4" s="45">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
-        <v>6527</v>
+        <v>8785</v>
       </c>
       <c r="S4" s="48" t="s">
         <v>41</v>
@@ -2042,9 +2092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6:R7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,25 +2119,25 @@
         <v>53</v>
       </c>
       <c r="C2" s="61"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="112" t="s">
+      <c r="F2" s="121"/>
+      <c r="G2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="113"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="66" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="67"/>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="118"/>
+      <c r="L2" s="124"/>
       <c r="M2" s="66" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2151,7 @@
         <v>35</v>
       </c>
       <c r="S2" s="67"/>
-      <c r="T2" s="108" t="s">
+      <c r="T2" s="114" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2112,7 +2162,7 @@
       <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2158,27 +2208,27 @@
       <c r="S3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="116"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="68"/>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="93" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="56" t="s">
@@ -2187,41 +2237,41 @@
       <c r="J4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="119">
+      <c r="K4" s="125">
         <v>13080</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="112" t="s">
         <v>63</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>59</v>
       </c>
       <c r="R4" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="110" t="s">
+      <c r="S4" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="80" t="s">
+      <c r="T4" s="82" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="59"/>
       <c r="G5" s="69"/>
       <c r="H5" s="59"/>
@@ -2231,310 +2281,344 @@
       <c r="L5" s="59"/>
       <c r="M5" s="69"/>
       <c r="N5" s="59"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="90"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="92"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="90" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="70"/>
       <c r="H6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="110">
         <v>13080</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="113">
         <v>9999</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="86" t="s">
+      <c r="O6" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="78" t="s">
+      <c r="P6" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="76" t="s">
+      <c r="Q6" s="78" t="s">
         <v>66</v>
       </c>
       <c r="R6" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="98" t="s">
+      <c r="S6" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="84" t="s">
+      <c r="T6" s="86" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="71"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="89"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="63"/>
       <c r="N7" s="52"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="77"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="79"/>
       <c r="R7" s="71"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="85"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="87"/>
     </row>
     <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="58"/>
+      <c r="B8" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>74</v>
+      </c>
       <c r="G8" s="64"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="58"/>
+      <c r="H8" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="58">
+        <v>13080</v>
+      </c>
       <c r="M8" s="64"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="80"/>
+      <c r="N8" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="82" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="83"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="59"/>
       <c r="G9" s="65"/>
       <c r="H9" s="55"/>
       <c r="I9" s="57"/>
       <c r="J9" s="59"/>
-      <c r="K9" s="83"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="59"/>
       <c r="M9" s="65"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="90"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="92"/>
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="62"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="88"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="62"/>
       <c r="N10" s="51"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="76"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="78"/>
       <c r="R10" s="62"/>
       <c r="S10" s="51"/>
-      <c r="T10" s="84"/>
+      <c r="T10" s="86"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="63"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="89"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="91"/>
       <c r="M11" s="63"/>
       <c r="N11" s="52"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="77"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="79"/>
       <c r="R11" s="63"/>
       <c r="S11" s="52"/>
-      <c r="T11" s="85"/>
+      <c r="T11" s="87"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="58"/>
       <c r="G12" s="64"/>
       <c r="H12" s="53"/>
       <c r="I12" s="56"/>
       <c r="J12" s="58"/>
-      <c r="K12" s="82"/>
+      <c r="K12" s="84"/>
       <c r="L12" s="58"/>
       <c r="M12" s="64"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="74"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="76"/>
       <c r="R12" s="64"/>
       <c r="S12" s="53"/>
-      <c r="T12" s="80"/>
+      <c r="T12" s="82"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
-      <c r="B13" s="83"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="59"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="83"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="59"/>
       <c r="G13" s="65"/>
       <c r="H13" s="55"/>
       <c r="I13" s="57"/>
       <c r="J13" s="59"/>
-      <c r="K13" s="83"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="59"/>
       <c r="M13" s="65"/>
       <c r="N13" s="55"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="75"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="77"/>
       <c r="R13" s="65"/>
       <c r="S13" s="55"/>
-      <c r="T13" s="90"/>
+      <c r="T13" s="92"/>
     </row>
     <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="62"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="88"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="62"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="76"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="78"/>
       <c r="R14" s="62"/>
       <c r="S14" s="51"/>
-      <c r="T14" s="84"/>
+      <c r="T14" s="86"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="63"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="89"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="63"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="77"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="79"/>
       <c r="R15" s="63"/>
       <c r="S15" s="52"/>
-      <c r="T15" s="85"/>
+      <c r="T15" s="87"/>
     </row>
     <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="58"/>
       <c r="G16" s="64"/>
       <c r="H16" s="53"/>
       <c r="I16" s="56"/>
       <c r="J16" s="58"/>
-      <c r="K16" s="82"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="58"/>
       <c r="M16" s="64"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="74"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="76"/>
       <c r="R16" s="64"/>
       <c r="S16" s="53"/>
-      <c r="T16" s="80"/>
+      <c r="T16" s="82"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
-      <c r="B17" s="83"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="59"/>
       <c r="G17" s="65"/>
       <c r="H17" s="54"/>
       <c r="I17" s="57"/>
       <c r="J17" s="59"/>
-      <c r="K17" s="83"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="59"/>
       <c r="M17" s="65"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="75"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="77"/>
       <c r="R17" s="65"/>
       <c r="S17" s="54"/>
-      <c r="T17" s="81"/>
+      <c r="T17" s="83"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
@@ -2715,9 +2799,11 @@
     <hyperlink ref="R4:R5" r:id="rId2" display="sig_990107.png"/>
     <hyperlink ref="S6:S7" r:id="rId3" display="tot_990112.png"/>
     <hyperlink ref="R6:R7" r:id="rId4" display="tech_990112.png"/>
+    <hyperlink ref="S8:S9" r:id="rId5" display="tot_990125.png"/>
+    <hyperlink ref="R8:R9" r:id="rId6" display="tech_990125.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2725,15 +2811,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2757,10 +2844,10 @@
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="43"/>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="115"/>
+      <c r="L2" s="121"/>
       <c r="M2" s="46" t="s">
         <v>19</v>
       </c>
@@ -2780,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="S2" s="67"/>
-      <c r="T2" s="120" t="s">
+      <c r="T2" s="126" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2829,7 +2916,7 @@
       <c r="S3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="120"/>
+      <c r="T3" s="126"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32">
@@ -2865,7 +2952,7 @@
       <c r="J4" s="34">
         <v>13080</v>
       </c>
-      <c r="K4" s="127">
+      <c r="K4" s="131">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0.142882389325793</v>
       </c>
@@ -2878,22 +2965,22 @@
       </c>
       <c r="N4" s="33">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>5.8733511984262132E-2</v>
+        <v>1.6370260148783695E-2</v>
       </c>
       <c r="O4" s="50">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>179695690.64468727</v>
-      </c>
-      <c r="P4" s="121">
+        <f>[1]سرمایه!$F$4</f>
+        <v>644715411</v>
+      </c>
+      <c r="P4" s="127">
         <v>11317</v>
       </c>
-      <c r="Q4" s="122">
+      <c r="Q4" s="128">
         <v>6527</v>
       </c>
       <c r="R4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="123" t="s">
+      <c r="S4" s="129" t="s">
         <v>43</v>
       </c>
       <c r="T4" s="48" t="s">
@@ -2910,268 +2997,364 @@
       <c r="H5" s="32"/>
       <c r="I5" s="33"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="127"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="35"/>
       <c r="M5" s="49"/>
       <c r="N5" s="33"/>
       <c r="O5" s="50"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="122"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="128"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="124"/>
+      <c r="S5" s="130"/>
       <c r="T5" s="48"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="48"/>
+      <c r="B6" s="32">
+        <f>IF(K6&gt;0, C6/K6,"RF")</f>
+        <v>-3.4967824967824974</v>
+      </c>
+      <c r="C6" s="33">
+        <f>(D6/P6)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <f>IF(K6&gt;0, F6/K6,"RF")</f>
+        <v>49.270270270270281</v>
+      </c>
+      <c r="F6" s="33">
+        <f>(G6/P6)-1</f>
+        <v>14.090172984909827</v>
+      </c>
+      <c r="G6" s="34">
+        <v>205000</v>
+      </c>
+      <c r="H6" s="32">
+        <f>IF(K6&gt;0, I6/K6,"RF")</f>
+        <v>9.6306306306306322</v>
+      </c>
+      <c r="I6" s="33">
+        <f>(J6/P6)-1</f>
+        <v>2.7541405962458594</v>
+      </c>
+      <c r="J6" s="34">
+        <v>51000</v>
+      </c>
+      <c r="K6" s="131">
+        <f>IF(1-(L6/P6)&gt;0, 1-(L6/P6), 0)</f>
+        <v>0.28597718071402278</v>
+      </c>
+      <c r="L6" s="35">
+        <v>9700</v>
+      </c>
+      <c r="M6" s="49">
+        <f>P6*Q6</f>
+        <v>20187310</v>
+      </c>
+      <c r="N6" s="33">
+        <f>IF( (P6-L6)*Q6/O6&gt;0, (P6-L6)*Q6/O6, "Risk free")</f>
+        <v>8.9545090771841352E-3</v>
+      </c>
+      <c r="O6" s="50">
+        <f>[1]سرمایه!$F$4</f>
+        <v>644715411</v>
+      </c>
+      <c r="P6" s="127">
+        <v>13585</v>
+      </c>
+      <c r="Q6" s="128">
+        <v>1486</v>
+      </c>
+      <c r="R6" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="126"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="34"/>
-      <c r="K7" s="136"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="124"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="130"/>
       <c r="T7" s="48"/>
     </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="138"/>
+    <row r="8" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32">
+        <f>IF(K8&gt;0, C8/K8,"RF")</f>
+        <v>-3.8732227488151656</v>
+      </c>
+      <c r="C8" s="33">
+        <f>(D8/P8)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <f>IF(K8&gt;0, F8/K8,"RF")</f>
+        <v>56.849822274881518</v>
+      </c>
+      <c r="F8" s="33">
+        <f>(G8/P8)-1</f>
+        <v>14.677653716732946</v>
+      </c>
+      <c r="G8" s="34">
+        <v>205001</v>
+      </c>
+      <c r="H8" s="32">
+        <f>IF(K8&gt;0, I8/K8,"RF")</f>
+        <v>11.233412322274882</v>
+      </c>
+      <c r="I8" s="33">
+        <f>(J8/P8)-1</f>
+        <v>2.9002753135515449</v>
+      </c>
+      <c r="J8" s="34">
+        <v>51000</v>
+      </c>
+      <c r="K8" s="131">
+        <f>IF(1-(L8/P8)&gt;0, 1-(L8/P8), 0)</f>
+        <v>0.25818293055980424</v>
+      </c>
+      <c r="L8" s="35">
+        <v>9700</v>
+      </c>
+      <c r="M8" s="49">
+        <f>P8*Q8</f>
+        <v>10094672</v>
+      </c>
+      <c r="N8" s="33">
+        <f>IF( (P8-L8)*Q8/O8&gt;0, (P8-L8)*Q8/O8, "Risk free")</f>
+        <v>4.0425154347675431E-3</v>
+      </c>
+      <c r="O8" s="50">
+        <f>[1]سرمایه!$F$4</f>
+        <v>644715411</v>
+      </c>
+      <c r="P8" s="127">
+        <v>13076</v>
+      </c>
+      <c r="Q8" s="128">
+        <v>772</v>
+      </c>
+      <c r="R8" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="131"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="135"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="131"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="139"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="48"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="140"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="148"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="140"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="149"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="141"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="146"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="152"/>
       <c r="S12" s="154"/>
-      <c r="T12" s="138"/>
+      <c r="T12" s="156"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="131"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="147"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="153"/>
       <c r="S13" s="155"/>
-      <c r="T13" s="139"/>
+      <c r="T13" s="157"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="140"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="148"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="140"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="149"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="141"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="146"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="152"/>
       <c r="S16" s="154"/>
-      <c r="T16" s="138"/>
+      <c r="T16" s="156"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="131"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="147"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="153"/>
       <c r="S17" s="155"/>
-      <c r="T17" s="139"/>
+      <c r="T17" s="157"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="S20" s="26"/>
@@ -3328,6 +3511,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990106.png"/>
+    <hyperlink ref="R6:R7" r:id="rId2" display="tech_990125.png"/>
+    <hyperlink ref="R8:R9" r:id="rId3" display="tech_990125.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3360,35 +3545,35 @@
       <c r="B2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="126" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="126" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="I2" s="38"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="126" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30"/>
-      <c r="C3" s="120"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="158"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="160"/>
       <c r="G3" s="46"/>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -3396,110 +3581,110 @@
       <c r="I3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="120"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="169">
+      <c r="B4" s="171">
         <f>D4-(F4*G4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="170">
+      <c r="C4" s="172">
         <f>E4/F4-1</f>
         <v>7.8531308508425157E-2</v>
       </c>
-      <c r="D4" s="169">
+      <c r="D4" s="171">
         <f>E4*G4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="166">
+      <c r="E4" s="168">
         <v>10369</v>
       </c>
-      <c r="F4" s="159">
+      <c r="F4" s="161">
         <v>9614</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="158">
         <v>0</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="156"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="158"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="156"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="166"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="156"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="166"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="156"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="158"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="156"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="156"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="44">
